--- a/Assignment 4/SABR_model_Vendor_software_example/2017_2_15_mid.xlsx
+++ b/Assignment 4/SABR_model_Vendor_software_example/2017_2_15_mid.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10392" yWindow="-108" windowWidth="14856" windowHeight="12732" activeTab="1"/>
+    <workbookView xWindow="10392" yWindow="-108" windowWidth="14856" windowHeight="12732"/>
   </bookViews>
   <sheets>
     <sheet name="Quotes" sheetId="2" r:id="rId1"/>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quotes!$A$1:$N$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$E$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
   <si>
     <t>Expiry</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>9Yr</t>
+  </si>
+  <si>
+    <t>20yr Vol</t>
   </si>
 </sst>
 </file>
@@ -974,8 +977,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2654,178 +2657,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.44</v>
       </c>
       <c r="B2">
         <v>72.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F2">
+        <v>60.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.48</v>
       </c>
       <c r="B3">
         <v>81.33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>2.61</v>
+      </c>
+      <c r="F3">
+        <v>61.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.52</v>
       </c>
       <c r="B4">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>2.66</v>
+      </c>
+      <c r="F4">
+        <v>73.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.56</v>
       </c>
       <c r="B5">
         <v>85.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>2.68</v>
+      </c>
+      <c r="F5">
+        <v>77.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.6</v>
       </c>
       <c r="B6">
         <v>86.28</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>2.68</v>
+      </c>
+      <c r="F6">
+        <v>55.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.61</v>
       </c>
       <c r="B7">
         <v>58.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>2.7</v>
+      </c>
+      <c r="F7">
+        <v>84.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.67</v>
       </c>
       <c r="B8">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>2.72</v>
+      </c>
+      <c r="F8">
+        <v>82.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.72</v>
       </c>
       <c r="B9">
         <v>87.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>2.74</v>
+      </c>
+      <c r="F9">
+        <v>82.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.74</v>
       </c>
       <c r="B10">
         <v>68.23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>2.78</v>
+      </c>
+      <c r="F10">
+        <v>62.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.8</v>
       </c>
       <c r="B11">
         <v>87.87</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>2.8</v>
+      </c>
+      <c r="F11">
+        <v>84.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.85</v>
       </c>
       <c r="B12">
         <v>87.31</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>2.83</v>
+      </c>
+      <c r="F12">
+        <v>68.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.86</v>
       </c>
       <c r="B13">
         <v>73.59</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>2.84</v>
+      </c>
+      <c r="F13">
+        <v>82.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.9</v>
       </c>
       <c r="B14">
         <v>90.62</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>2.86</v>
+      </c>
+      <c r="F14">
+        <v>81.349999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.91</v>
       </c>
       <c r="B15">
         <v>75.959999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>2.86</v>
+      </c>
+      <c r="F15">
+        <v>72.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.92</v>
       </c>
       <c r="B16">
         <v>85.17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>2.87</v>
+      </c>
+      <c r="F16">
+        <v>72.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.93</v>
       </c>
       <c r="B17">
         <v>83.76</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>2.88</v>
+      </c>
+      <c r="F17">
+        <v>83.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.94</v>
       </c>
       <c r="B18">
         <v>81.19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>2.88</v>
+      </c>
+      <c r="F18">
+        <v>78.349999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.94</v>
       </c>
       <c r="B19">
         <v>77.540000000000006</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>2.88</v>
+      </c>
+      <c r="F19">
+        <v>79.290000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.95</v>
       </c>
       <c r="B20">
         <v>79.22</v>
       </c>
+      <c r="E20">
+        <v>2.88</v>
+      </c>
+      <c r="F20">
+        <v>74.78</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B20">
-    <sortState ref="A2:B20">
-      <sortCondition ref="A1:A20"/>
+  <autoFilter ref="E1:F20">
+    <sortState ref="E2:F20">
+      <sortCondition ref="E1:E20"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
